--- a/cfg/地图信息.xlsx
+++ b/cfg/地图信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="q_map" sheetId="4" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>怪物表</t>
   </si>
@@ -185,25 +185,43 @@
     <t>新手村</t>
   </si>
   <si>
-    <t>1,2</t>
+    <t>[1,2]</t>
   </si>
   <si>
     <t>城镇中心</t>
   </si>
   <si>
+    <t>[1,3]</t>
+  </si>
+  <si>
     <t>魔幻森林</t>
   </si>
   <si>
+    <t>[1,4]</t>
+  </si>
+  <si>
     <t>宠物天堂</t>
   </si>
   <si>
+    <t>[1,5]</t>
+  </si>
+  <si>
     <t>永恒大陆</t>
   </si>
   <si>
+    <t>[1,6]</t>
+  </si>
+  <si>
     <t>暗之神殿</t>
   </si>
   <si>
+    <t>[1,7]</t>
+  </si>
+  <si>
     <t>神魔大殿</t>
+  </si>
+  <si>
+    <t>[1,8]</t>
   </si>
 </sst>
 </file>
@@ -375,12 +393,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1183,7 +1201,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1199,7 +1217,7 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:8">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1229,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1235,7 +1253,7 @@
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1259,7 +1277,7 @@
       </c>
       <c r="H3"/>
     </row>
-    <row r="4" ht="14.25" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1352,7 +1370,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -1368,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>21</v>
@@ -1377,7 +1395,7 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -1393,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>31</v>
@@ -1402,7 +1420,7 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -1418,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>41</v>
@@ -1427,7 +1445,7 @@
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -1443,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>51</v>
@@ -1452,7 +1470,7 @@
         <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
@@ -1468,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>61</v>
@@ -1477,7 +1495,7 @@
         <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
